--- a/ResultadoEleicoesDistritos/PORTO_TROFA.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_TROFA.xlsx
@@ -597,31 +597,31 @@
         <v>10197</v>
       </c>
       <c r="H2" t="n">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="I2" t="n">
-        <v>989</v>
+        <v>971</v>
       </c>
       <c r="J2" t="n">
-        <v>4137</v>
+        <v>4277</v>
       </c>
       <c r="K2" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L2" t="n">
-        <v>1142</v>
+        <v>1191</v>
       </c>
       <c r="M2" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N2" t="n">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -630,31 +630,31 @@
         <v>51</v>
       </c>
       <c r="S2" t="n">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="T2" t="n">
-        <v>727</v>
+        <v>781</v>
       </c>
       <c r="U2" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="V2" t="n">
-        <v>6602</v>
+        <v>6438</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>6557</v>
+        <v>6533</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA2" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
